--- a/output/table_III.xlsx
+++ b/output/table_III.xlsx
@@ -228,14 +228,14 @@
       <c r="C2" t="n">
         <v>3.0</v>
       </c>
-      <c r="D2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#N/A</v>
+      <c r="D2" t="n">
+        <v>1.3614556289872948</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.366178767983978</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.13946747388452077</v>
       </c>
       <c r="G2" t="e">
         <v>#N/A</v>
@@ -293,20 +293,20 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#N/A</v>
+      <c r="B3" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.3796114390758285</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.3885050948092563</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.09512696294375586</v>
       </c>
       <c r="G3" t="e">
         <v>#N/A</v>
@@ -364,20 +364,20 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#N/A</v>
+      <c r="B4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.3886157679125724</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.39438850698754</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.06209425572159568</v>
       </c>
       <c r="G4" t="e">
         <v>#N/A</v>
@@ -435,20 +435,20 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#N/A</v>
+      <c r="B5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.39543724086857</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.395669096000102</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04260201455288137</v>
       </c>
       <c r="G5" t="e">
         <v>#N/A</v>
@@ -506,20 +506,20 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#N/A</v>
+      <c r="B6" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.3973838037588173</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.398401151626009</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02759451797376644</v>
       </c>
       <c r="G6" t="e">
         <v>#N/A</v>
@@ -577,20 +577,20 @@
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#N/A</v>
+      <c r="B7" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.3987506550227928</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.3990832706417433</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.020431345768639125</v>
       </c>
       <c r="G7" t="e">
         <v>#N/A</v>
@@ -648,20 +648,20 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#N/A</v>
+      <c r="B8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.3641331388140712</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.364514595448927</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1402199689844875</v>
       </c>
       <c r="G8" t="e">
         <v>#N/A</v>
@@ -719,20 +719,20 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#N/A</v>
+      <c r="B9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.3838860480202357</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.382159611570845</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0958995442960022</v>
       </c>
       <c r="G9" t="e">
         <v>#N/A</v>
@@ -790,20 +790,20 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#N/A</v>
+      <c r="B10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.3953944357230799</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.394733910801989</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.060585441200436886</v>
       </c>
       <c r="G10" t="e">
         <v>#N/A</v>
@@ -861,20 +861,20 @@
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F11" t="e">
-        <v>#N/A</v>
+      <c r="B11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.3946282103707772</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.395002334822784</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.043361722531458737</v>
       </c>
       <c r="G11" t="e">
         <v>#N/A</v>
@@ -932,20 +932,20 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F12" t="e">
-        <v>#N/A</v>
+      <c r="B12" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.3962458574998808</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.3998908546451596</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02776169906521975</v>
       </c>
       <c r="G12" t="e">
         <v>#N/A</v>
